--- a/hardware/dc27_badge_kicad/BOM/bom-simplified.xlsx
+++ b/hardware/dc27_badge_kicad/BOM/bom-simplified.xlsx
@@ -380,9 +380,6 @@
     <t>R605</t>
   </si>
   <si>
-    <t>RC0201FR-0747K5L</t>
-  </si>
-  <si>
     <t>SW101</t>
   </si>
   <si>
@@ -474,6 +471,9 @@
   </si>
   <si>
     <t>IS31FL3736-QFLS4-TR</t>
+  </si>
+  <si>
+    <t>ERJ-3EKF4752V</t>
   </si>
 </sst>
 </file>
@@ -1791,8 +1791,8 @@
   </sheetPr>
   <dimension ref="A1:IP114"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="B107" sqref="B107"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2557,159 +2557,159 @@
         <v>117</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B96" s="6" t="s">
         <v>119</v>
-      </c>
-      <c r="B96" s="6" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B104" s="6" t="s">
         <v>128</v>
-      </c>
-      <c r="B104" s="6" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B105" s="6" t="s">
         <v>130</v>
-      </c>
-      <c r="B105" s="6" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B107" s="6" t="s">
         <v>133</v>
-      </c>
-      <c r="B107" s="6" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B108" s="6" t="s">
         <v>135</v>
-      </c>
-      <c r="B108" s="6" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B110" s="6" t="s">
         <v>138</v>
-      </c>
-      <c r="B110" s="6" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B111" s="6" t="s">
         <v>140</v>
-      </c>
-      <c r="B111" s="6" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B112" s="6" t="s">
         <v>142</v>
-      </c>
-      <c r="B112" s="6" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B113" s="6" t="s">
         <v>144</v>
-      </c>
-      <c r="B113" s="6" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B114" s="6" t="s">
         <v>146</v>
-      </c>
-      <c r="B114" s="6" t="s">
-        <v>147</v>
       </c>
     </row>
   </sheetData>
